--- a/AD010_内部定義/BB030_テーブル設計書/BB030030_株銘柄.xlsx
+++ b/AD010_内部定義/BB030_テーブル設計書/BB030030_株銘柄.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62405F4-5E85-4B00-B0FC-8867DA563B80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F97A7C-6AB5-46F7-AD44-01C22F3EBA5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4608" yWindow="4608" windowWidth="21348" windowHeight="15672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="3072" windowWidth="22968" windowHeight="18444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="1" r:id="rId1"/>
@@ -1022,6 +1022,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
+        <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1068,6 +1069,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
+        <f t="shared" ref="A3:A21" si="2">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1092,7 +1094,7 @@
         <v>16</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J18" si="2">",   "&amp;C3</f>
+        <f t="shared" ref="J3:J18" si="3">",   "&amp;C3</f>
         <v>,   start_date</v>
       </c>
       <c r="K3" t="str">
@@ -1114,6 +1116,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1138,7 +1141,7 @@
         <v>16</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,   end_date</v>
       </c>
       <c r="K4" t="str">
@@ -1160,6 +1163,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1184,7 +1188,7 @@
         <v>16</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,   locale_id</v>
       </c>
       <c r="K5" t="str">
@@ -1206,6 +1210,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1228,7 +1233,7 @@
         <v>16</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,   creator</v>
       </c>
       <c r="K6" t="str">
@@ -1250,6 +1255,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1274,7 +1280,7 @@
         <v>16</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,   created_date</v>
       </c>
       <c r="K7" t="str">
@@ -1296,6 +1302,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1318,7 +1325,7 @@
         <v>16</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,   updater</v>
       </c>
       <c r="K8" t="str">
@@ -1340,6 +1347,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1364,7 +1372,7 @@
         <v>16</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,   update_date</v>
       </c>
       <c r="K9" t="str">
@@ -1386,6 +1394,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1410,7 +1419,7 @@
         <v>16</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,   note</v>
       </c>
       <c r="K10" t="str">
@@ -1432,6 +1441,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1456,7 +1466,7 @@
         <v>16</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,   name</v>
       </c>
       <c r="K11" t="str">
@@ -1478,7 +1488,8 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>82</v>
@@ -1496,13 +1507,13 @@
         <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" ref="J12" si="3">",   "&amp;C12</f>
+        <f t="shared" ref="J12" si="4">",   "&amp;C12</f>
         <v>,   stock_market_id</v>
       </c>
       <c r="K12" t="str">
@@ -1514,17 +1525,18 @@
         <v/>
       </c>
       <c r="M12" t="str">
-        <f t="shared" ref="M12" si="4">IF(G12="無"," NOT NULL","")</f>
-        <v xml:space="preserve"> NOT NULL</v>
+        <f t="shared" ref="M12" si="5">IF(G12="無"," NOT NULL","")</f>
+        <v/>
       </c>
       <c r="N12" t="str">
-        <f t="shared" ref="N12:N14" si="5">IF(H12=1," PRIMARY KEY","")</f>
+        <f t="shared" ref="N12:N14" si="6">IF(H12=1," PRIMARY KEY","")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>64</v>
@@ -1548,7 +1560,7 @@
         <v>16</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" ref="J13:J14" si="6">",   "&amp;C13</f>
+        <f t="shared" ref="J13:J14" si="7">",   "&amp;C13</f>
         <v>,   code</v>
       </c>
       <c r="K13" t="str">
@@ -1560,17 +1572,18 @@
         <v/>
       </c>
       <c r="M13" t="str">
-        <f t="shared" ref="M13:M14" si="7">IF(G13="無"," NOT NULL","")</f>
+        <f t="shared" ref="M13:M14" si="8">IF(G13="無"," NOT NULL","")</f>
         <v xml:space="preserve"> NOT NULL</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>66</v>
@@ -1594,7 +1607,7 @@
         <v>16</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>,   industry_type</v>
       </c>
       <c r="K14" t="str">
@@ -1606,17 +1619,18 @@
         <v>(255)</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>41</v>
@@ -1640,7 +1654,7 @@
         <v>16</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,   characteristic</v>
       </c>
       <c r="K15" t="str">
@@ -1662,7 +1676,8 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>46</v>
@@ -1686,7 +1701,7 @@
         <v>16</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,   settlement_of_accounts_month</v>
       </c>
       <c r="K16" t="str">
@@ -1708,7 +1723,8 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>47</v>
@@ -1732,7 +1748,7 @@
         <v>16</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,   establishment_day</v>
       </c>
       <c r="K17" t="str">
@@ -1754,7 +1770,8 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>48</v>
@@ -1778,7 +1795,7 @@
         <v>16</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,   listed_day</v>
       </c>
       <c r="K18" t="str">
@@ -1800,7 +1817,8 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>42</v>
@@ -1824,7 +1842,7 @@
         <v>16</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" ref="J19:J21" si="8">",   "&amp;C19</f>
+        <f t="shared" ref="J19:J21" si="9">",   "&amp;C19</f>
         <v>,   stockholders_number</v>
       </c>
       <c r="K19" t="str">
@@ -1836,17 +1854,18 @@
         <v/>
       </c>
       <c r="M19" t="str">
-        <f t="shared" ref="M19:M21" si="9">IF(G19="無"," NOT NULL","")</f>
+        <f t="shared" ref="M19:M21" si="10">IF(G19="無"," NOT NULL","")</f>
         <v/>
       </c>
       <c r="N19" t="str">
-        <f t="shared" ref="N19:N21" si="10">IF(H19=1," PRIMARY KEY","")</f>
+        <f t="shared" ref="N19:N21" si="11">IF(H19=1," PRIMARY KEY","")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>43</v>
@@ -1870,7 +1889,7 @@
         <v>16</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">,   stocks_number </v>
       </c>
       <c r="K20" t="str">
@@ -1882,17 +1901,18 @@
         <v/>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>44</v>
@@ -1916,7 +1936,7 @@
         <v>16</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>,   units_number</v>
       </c>
       <c r="K21" t="str">
@@ -1928,11 +1948,11 @@
         <v/>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
